--- a/Consegna S3-L1.xlsx
+++ b/Consegna S3-L1.xlsx
@@ -92,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -127,6 +127,11 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -177,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -202,6 +207,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1125,12 +1131,12 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="8"/>
+      <c r="J28" s="12"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="7"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="9"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -1152,8 +1158,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="7"/>
+      <c r="J29" s="8"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -1178,7 +1183,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="7"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -1206,7 +1211,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
